--- a/crypto/Future + Glassnode/Bybit Data/4/LOOMUSDT_60min_20h14m44s.xlsx
+++ b/crypto/Future + Glassnode/Bybit Data/4/LOOMUSDT_60min_20h14m44s.xlsx
@@ -5,19 +5,30 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenkot\OneDrive\桌面\Python learning\Calvin\Script\Production\Future + Glassnode\Bybit Data\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5C9637-B6F8-45D7-A376-26C279C953FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC364D-6159-4F90-A45F-65B05EACBD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OI" sheetId="1" r:id="rId1"/>
     <sheet name="Funding Rate" sheetId="2" r:id="rId2"/>
     <sheet name="Price Data" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2172,6 +2183,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="556146992"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4026,10 +4038,13 @@
   <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -4934,7 +4949,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
